--- a/data/pca/factorExposure/factorExposure_2011-10-14.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-10-14.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,21 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +720,54 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.01312062198591568</v>
+        <v>-0.01397819305932939</v>
       </c>
       <c r="C2">
-        <v>-0.03100228020253513</v>
+        <v>-0.0004568898282215563</v>
       </c>
       <c r="D2">
-        <v>0.02014969350136847</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.03162885123557668</v>
+      </c>
+      <c r="E2">
+        <v>-0.0002460494563448643</v>
+      </c>
+      <c r="F2">
+        <v>0.03951469735163335</v>
+      </c>
+      <c r="G2">
+        <v>0.0148463182939306</v>
+      </c>
+      <c r="H2">
+        <v>-0.0108280924705752</v>
+      </c>
+      <c r="I2">
+        <v>-0.006328287152515276</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +778,54 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.07717393906358304</v>
+        <v>-0.09080450300986725</v>
       </c>
       <c r="C4">
-        <v>-0.057567598891751</v>
+        <v>-0.04101299352421255</v>
       </c>
       <c r="D4">
-        <v>0.08278313236960665</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.07411460255896707</v>
+      </c>
+      <c r="E4">
+        <v>-0.03211206244152116</v>
+      </c>
+      <c r="F4">
+        <v>0.05279619841258805</v>
+      </c>
+      <c r="G4">
+        <v>-0.02173541619908062</v>
+      </c>
+      <c r="H4">
+        <v>0.01393320475476135</v>
+      </c>
+      <c r="I4">
+        <v>0.06762066495969278</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +836,344 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0.1155984262047054</v>
+        <v>-0.1264164390530312</v>
       </c>
       <c r="C6">
-        <v>-0.0474690041426507</v>
+        <v>0.00460660564906687</v>
       </c>
       <c r="D6">
-        <v>0.01118014418499692</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.03621747185851835</v>
+      </c>
+      <c r="E6">
+        <v>0.02189113207862723</v>
+      </c>
+      <c r="F6">
+        <v>0.04343664144695037</v>
+      </c>
+      <c r="G6">
+        <v>-0.05224776206441355</v>
+      </c>
+      <c r="H6">
+        <v>-0.1980518527908499</v>
+      </c>
+      <c r="I6">
+        <v>0.001302275056069384</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.06464937584350788</v>
+        <v>-0.0674841370332933</v>
       </c>
       <c r="C7">
-        <v>-0.04401153829622891</v>
+        <v>-0.03762032807879484</v>
       </c>
       <c r="D7">
-        <v>0.0347014508785424</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05282846063821548</v>
+      </c>
+      <c r="E7">
+        <v>-0.01412835255110661</v>
+      </c>
+      <c r="F7">
+        <v>0.05706411632681303</v>
+      </c>
+      <c r="G7">
+        <v>0.01515618680422712</v>
+      </c>
+      <c r="H7">
+        <v>0.01124581023287708</v>
+      </c>
+      <c r="I7">
+        <v>0.03876303577877056</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.04195670681527663</v>
+        <v>-0.04201703971102761</v>
       </c>
       <c r="C8">
-        <v>0.004192314449736097</v>
+        <v>-0.02847008965923098</v>
       </c>
       <c r="D8">
-        <v>0.06345846768738267</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.008491819487533922</v>
+      </c>
+      <c r="E8">
+        <v>-0.03785004239505887</v>
+      </c>
+      <c r="F8">
+        <v>0.06964403658975256</v>
+      </c>
+      <c r="G8">
+        <v>-0.04867619839215343</v>
+      </c>
+      <c r="H8">
+        <v>-0.02351074242383336</v>
+      </c>
+      <c r="I8">
+        <v>0.1167904988945594</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.07365626051757143</v>
+        <v>-0.08298142923389817</v>
       </c>
       <c r="C9">
-        <v>-0.04090959214829435</v>
+        <v>-0.04147173727301364</v>
       </c>
       <c r="D9">
-        <v>0.07591755046398836</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.05783586876332773</v>
+      </c>
+      <c r="E9">
+        <v>-0.03258517116466033</v>
+      </c>
+      <c r="F9">
+        <v>0.04812143155442505</v>
+      </c>
+      <c r="G9">
+        <v>-0.03772962161059906</v>
+      </c>
+      <c r="H9">
+        <v>0.01988291061686203</v>
+      </c>
+      <c r="I9">
+        <v>0.0742534333772381</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.02471412218684829</v>
+        <v>-0.05882794156840119</v>
       </c>
       <c r="C10">
-        <v>-0.02411470404074251</v>
+        <v>0.1927559114516557</v>
       </c>
       <c r="D10">
-        <v>-0.1760419495035669</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.04003693820221184</v>
+      </c>
+      <c r="E10">
+        <v>-0.004011844011186308</v>
+      </c>
+      <c r="F10">
+        <v>0.05866887617166751</v>
+      </c>
+      <c r="G10">
+        <v>0.04073160260165715</v>
+      </c>
+      <c r="H10">
+        <v>-0.05075738863152748</v>
+      </c>
+      <c r="I10">
+        <v>-0.05980135953134759</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.07063225934223033</v>
+        <v>-0.07484711924065761</v>
       </c>
       <c r="C11">
-        <v>-0.0358839561897905</v>
+        <v>-0.04256256162622112</v>
       </c>
       <c r="D11">
-        <v>0.05827167338479091</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.04675516553084322</v>
+      </c>
+      <c r="E11">
+        <v>-0.009714444780355101</v>
+      </c>
+      <c r="F11">
+        <v>0.04293631007301648</v>
+      </c>
+      <c r="G11">
+        <v>-0.04932220316755319</v>
+      </c>
+      <c r="H11">
+        <v>0.0493866584211439</v>
+      </c>
+      <c r="I11">
+        <v>0.06296384738194574</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.06662293841344498</v>
+        <v>-0.07153980932249117</v>
       </c>
       <c r="C12">
-        <v>-0.04731887296098712</v>
+        <v>-0.02867584798944443</v>
       </c>
       <c r="D12">
-        <v>0.04526173420594443</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.04910775628734256</v>
+      </c>
+      <c r="E12">
+        <v>-0.01675196609385777</v>
+      </c>
+      <c r="F12">
+        <v>0.03188176338544551</v>
+      </c>
+      <c r="G12">
+        <v>-0.02402309741648935</v>
+      </c>
+      <c r="H12">
+        <v>0.02021662716812236</v>
+      </c>
+      <c r="I12">
+        <v>0.08323802245127607</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.06669093424906172</v>
+        <v>-0.06505819900692839</v>
       </c>
       <c r="C13">
-        <v>-0.04532002090525072</v>
+        <v>-0.02867895832773699</v>
       </c>
       <c r="D13">
-        <v>0.06171530614061065</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.04780455340488262</v>
+      </c>
+      <c r="E13">
+        <v>-0.05223671069773064</v>
+      </c>
+      <c r="F13">
+        <v>0.02528136565706403</v>
+      </c>
+      <c r="G13">
+        <v>-0.006811294772933252</v>
+      </c>
+      <c r="H13">
+        <v>0.03946408462968871</v>
+      </c>
+      <c r="I13">
+        <v>0.1021786611023488</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>0.03095066809731253</v>
+        <v>-0.04128520541050298</v>
       </c>
       <c r="C14">
-        <v>-0.03196677902544531</v>
+        <v>0.001055166551600698</v>
       </c>
       <c r="D14">
-        <v>0.002267046600210561</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03524239198024245</v>
+      </c>
+      <c r="E14">
+        <v>-0.01892091612994383</v>
+      </c>
+      <c r="F14">
+        <v>0.02418069514608482</v>
+      </c>
+      <c r="G14">
+        <v>-0.02977012887480876</v>
+      </c>
+      <c r="H14">
+        <v>0.06202192622745537</v>
+      </c>
+      <c r="I14">
+        <v>0.05248073963060471</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>0.04602111559681506</v>
+        <v>-0.04189632872367256</v>
       </c>
       <c r="C15">
-        <v>-0.008086370024812307</v>
+        <v>-0.01445039816357464</v>
       </c>
       <c r="D15">
-        <v>0.02589213504125165</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.007197965812765128</v>
+      </c>
+      <c r="E15">
+        <v>-0.03723216953812468</v>
+      </c>
+      <c r="F15">
+        <v>0.003045330414396238</v>
+      </c>
+      <c r="G15">
+        <v>-0.02516938961378827</v>
+      </c>
+      <c r="H15">
+        <v>0.01806607963406992</v>
+      </c>
+      <c r="I15">
+        <v>0.02889912188523434</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.05970372791857344</v>
+        <v>-0.07171986075759244</v>
       </c>
       <c r="C16">
-        <v>-0.03859624681695078</v>
+        <v>-0.04097470660252447</v>
       </c>
       <c r="D16">
-        <v>0.06136247436631355</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.05440367967197235</v>
+      </c>
+      <c r="E16">
+        <v>-0.01755835181206546</v>
+      </c>
+      <c r="F16">
+        <v>0.03624240375330938</v>
+      </c>
+      <c r="G16">
+        <v>-0.02476399970566238</v>
+      </c>
+      <c r="H16">
+        <v>0.03024527858745895</v>
+      </c>
+      <c r="I16">
+        <v>0.03996509323421907</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1184,25 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,10 +1213,25 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1242,228 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.06385896008173605</v>
+        <v>-0.0613977979545416</v>
       </c>
       <c r="C20">
-        <v>-0.01962513461840278</v>
+        <v>-0.03602866661393418</v>
       </c>
       <c r="D20">
-        <v>0.05500591792559529</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.02643066648177532</v>
+      </c>
+      <c r="E20">
+        <v>-0.005528926554351409</v>
+      </c>
+      <c r="F20">
+        <v>0.03108629632785448</v>
+      </c>
+      <c r="G20">
+        <v>-0.01804411691981586</v>
+      </c>
+      <c r="H20">
+        <v>0.04270363413178045</v>
+      </c>
+      <c r="I20">
+        <v>0.1020797587503147</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.03348353807566571</v>
+        <v>-0.02986922730805529</v>
       </c>
       <c r="C21">
-        <v>-0.005437737260688627</v>
+        <v>-0.01693916832727209</v>
       </c>
       <c r="D21">
-        <v>0.008552940367683075</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.005887321648102837</v>
+      </c>
+      <c r="E21">
+        <v>-0.03974901635421536</v>
+      </c>
+      <c r="F21">
+        <v>0.001626641372051156</v>
+      </c>
+      <c r="G21">
+        <v>-0.002437517145750224</v>
+      </c>
+      <c r="H21">
+        <v>-0.05850992738751165</v>
+      </c>
+      <c r="I21">
+        <v>0.02983521371251227</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>0.109187882243281</v>
+        <v>-0.09311113221430926</v>
       </c>
       <c r="C22">
-        <v>-0.02408672149752801</v>
+        <v>-0.05067174783570469</v>
       </c>
       <c r="D22">
-        <v>0.09124110437793874</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.0134518284677632</v>
+      </c>
+      <c r="E22">
+        <v>-0.5570232264046023</v>
+      </c>
+      <c r="F22">
+        <v>0.04131613594939171</v>
+      </c>
+      <c r="G22">
+        <v>0.269877591804001</v>
+      </c>
+      <c r="H22">
+        <v>-0.1284639816121975</v>
+      </c>
+      <c r="I22">
+        <v>-0.2307286022120266</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>0.1098892518304901</v>
+        <v>-0.09394267866622079</v>
       </c>
       <c r="C23">
-        <v>-0.02502198403373502</v>
+        <v>-0.05085092580451586</v>
       </c>
       <c r="D23">
-        <v>0.09132083644103936</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.01459364439952521</v>
+      </c>
+      <c r="E23">
+        <v>-0.5604331973963673</v>
+      </c>
+      <c r="F23">
+        <v>0.04308122939400407</v>
+      </c>
+      <c r="G23">
+        <v>0.2642706540901332</v>
+      </c>
+      <c r="H23">
+        <v>-0.1282213440642369</v>
+      </c>
+      <c r="I23">
+        <v>-0.2330611002682371</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.07762929718574871</v>
+        <v>-0.08188220354679514</v>
       </c>
       <c r="C24">
-        <v>-0.04330962324778408</v>
+        <v>-0.03883940053020575</v>
       </c>
       <c r="D24">
-        <v>0.06333220373977576</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.05218766850463413</v>
+      </c>
+      <c r="E24">
+        <v>-0.02230407247402742</v>
+      </c>
+      <c r="F24">
+        <v>0.04397412957417735</v>
+      </c>
+      <c r="G24">
+        <v>-0.04093379941652631</v>
+      </c>
+      <c r="H24">
+        <v>0.02280650702469581</v>
+      </c>
+      <c r="I24">
+        <v>0.05959555487890963</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.07634607611149448</v>
+        <v>-0.07803322407170674</v>
       </c>
       <c r="C25">
-        <v>-0.05114073407346908</v>
+        <v>-0.03031100595196625</v>
       </c>
       <c r="D25">
-        <v>0.05805624246906482</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.05528633657671344</v>
+      </c>
+      <c r="E25">
+        <v>-0.03080012753152022</v>
+      </c>
+      <c r="F25">
+        <v>0.03925806786732022</v>
+      </c>
+      <c r="G25">
+        <v>-0.04362271169994365</v>
+      </c>
+      <c r="H25">
+        <v>0.02973069252175591</v>
+      </c>
+      <c r="I25">
+        <v>0.07268141200933019</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.04759674677712841</v>
+        <v>-0.04730069902044503</v>
       </c>
       <c r="C26">
-        <v>-0.008280457937715483</v>
+        <v>-0.01697519466131471</v>
       </c>
       <c r="D26">
-        <v>0.01323013895482263</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.006194613804803115</v>
+      </c>
+      <c r="E26">
+        <v>-0.04171861355843815</v>
+      </c>
+      <c r="F26">
+        <v>0.03259519562475939</v>
+      </c>
+      <c r="G26">
+        <v>-0.01987066906738747</v>
+      </c>
+      <c r="H26">
+        <v>0.03327036621073404</v>
+      </c>
+      <c r="I26">
+        <v>0.01518281112506779</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1474,286 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.04454723828318284</v>
+        <v>-0.07295614992207555</v>
       </c>
       <c r="C28">
-        <v>-0.05992698320618008</v>
+        <v>0.2905234467495087</v>
       </c>
       <c r="D28">
-        <v>-0.2839521795922351</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.06114831773956893</v>
+      </c>
+      <c r="E28">
+        <v>-0.01044356564938693</v>
+      </c>
+      <c r="F28">
+        <v>0.03658655416956713</v>
+      </c>
+      <c r="G28">
+        <v>-0.02716994101738884</v>
+      </c>
+      <c r="H28">
+        <v>-0.03979443797687056</v>
+      </c>
+      <c r="I28">
+        <v>-0.01166377034450617</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>0.05179430549041521</v>
+        <v>-0.05407032317704246</v>
       </c>
       <c r="C29">
-        <v>-0.04554383164902009</v>
+        <v>0.005052052219208794</v>
       </c>
       <c r="D29">
-        <v>-0.003117608520911171</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03808126358334505</v>
+      </c>
+      <c r="E29">
+        <v>-0.03680879290583753</v>
+      </c>
+      <c r="F29">
+        <v>0.03638311162186312</v>
+      </c>
+      <c r="G29">
+        <v>-0.01566268390198719</v>
+      </c>
+      <c r="H29">
+        <v>0.08405013210354531</v>
+      </c>
+      <c r="I29">
+        <v>0.04141295662978278</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.1394833639077072</v>
+        <v>-0.1284348825225539</v>
       </c>
       <c r="C30">
-        <v>-0.07639147562860263</v>
+        <v>-0.04243488242727943</v>
       </c>
       <c r="D30">
-        <v>0.09833822771102424</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.07754488344341491</v>
+      </c>
+      <c r="E30">
+        <v>-0.06830392140083551</v>
+      </c>
+      <c r="F30">
+        <v>0.06159092769111416</v>
+      </c>
+      <c r="G30">
+        <v>-0.05123436392707134</v>
+      </c>
+      <c r="H30">
+        <v>-0.04113725230407439</v>
+      </c>
+      <c r="I30">
+        <v>0.3107910968220169</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.05075600200010706</v>
+        <v>-0.04633895784488121</v>
       </c>
       <c r="C31">
-        <v>-0.02537209554519092</v>
+        <v>-0.02939682550914171</v>
       </c>
       <c r="D31">
-        <v>0.02183354841789358</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02803491244217885</v>
+      </c>
+      <c r="E31">
+        <v>-0.02346497269409259</v>
+      </c>
+      <c r="F31">
+        <v>0.01264023858661788</v>
+      </c>
+      <c r="G31">
+        <v>0.002375543333209607</v>
+      </c>
+      <c r="H31">
+        <v>0.06230329459063356</v>
+      </c>
+      <c r="I31">
+        <v>0.02901547470217844</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.0372394143070844</v>
+        <v>-0.0439729333606354</v>
       </c>
       <c r="C32">
-        <v>-0.01011389624052166</v>
+        <v>0.002575180781532638</v>
       </c>
       <c r="D32">
-        <v>0.02996271975466157</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.01090681511583824</v>
+      </c>
+      <c r="E32">
+        <v>-0.07483397353462168</v>
+      </c>
+      <c r="F32">
+        <v>-0.003320382404591228</v>
+      </c>
+      <c r="G32">
+        <v>-0.024482244672992</v>
+      </c>
+      <c r="H32">
+        <v>-0.01684206005336049</v>
+      </c>
+      <c r="I32">
+        <v>-0.01539209386307461</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.0923969736849634</v>
+        <v>-0.09588082298791852</v>
       </c>
       <c r="C33">
-        <v>-0.04364787112522259</v>
+        <v>-0.03538653270783537</v>
       </c>
       <c r="D33">
-        <v>0.04447689761095854</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.04481768972698359</v>
+      </c>
+      <c r="E33">
+        <v>-0.02604624149823536</v>
+      </c>
+      <c r="F33">
+        <v>0.004756017472051313</v>
+      </c>
+      <c r="G33">
+        <v>-0.002337970234011736</v>
+      </c>
+      <c r="H33">
+        <v>0.05339525731015857</v>
+      </c>
+      <c r="I33">
+        <v>0.07317551605086309</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.06107111931238924</v>
+        <v>-0.06814079553018289</v>
       </c>
       <c r="C34">
-        <v>-0.0215958306173334</v>
+        <v>-0.03646638904051042</v>
       </c>
       <c r="D34">
-        <v>0.0562097321465609</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.03356751011558469</v>
+      </c>
+      <c r="E34">
+        <v>-0.02115763678257583</v>
+      </c>
+      <c r="F34">
+        <v>0.02695257041540487</v>
+      </c>
+      <c r="G34">
+        <v>-0.02638477184398547</v>
+      </c>
+      <c r="H34">
+        <v>0.04183985559752573</v>
+      </c>
+      <c r="I34">
+        <v>0.04960159236462111</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>0.03721603855282532</v>
+        <v>-0.03680395707578137</v>
       </c>
       <c r="C35">
-        <v>-0.01508371409955321</v>
+        <v>-0.01242346533949524</v>
       </c>
       <c r="D35">
-        <v>0.01732536554297009</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01749366161277899</v>
+      </c>
+      <c r="E35">
+        <v>-0.01584426300102725</v>
+      </c>
+      <c r="F35">
+        <v>-0.010093535550081</v>
+      </c>
+      <c r="G35">
+        <v>-0.0008033566464248331</v>
+      </c>
+      <c r="H35">
+        <v>0.03233658723897104</v>
+      </c>
+      <c r="I35">
+        <v>0.04631666576198908</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.03126565687633072</v>
+        <v>-0.03101285239878389</v>
       </c>
       <c r="C36">
-        <v>-0.01482366846397833</v>
+        <v>-0.01109584634635866</v>
       </c>
       <c r="D36">
-        <v>0.01975939224164627</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.01507791775841924</v>
+      </c>
+      <c r="E36">
+        <v>-0.03561424199026883</v>
+      </c>
+      <c r="F36">
+        <v>0.03729481874502526</v>
+      </c>
+      <c r="G36">
+        <v>-0.0157835783348144</v>
+      </c>
+      <c r="H36">
+        <v>0.03260412715674908</v>
+      </c>
+      <c r="I36">
+        <v>0.06479719517333482</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1764,141 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.068519196604754</v>
+        <v>-0.05802985848571822</v>
       </c>
       <c r="C38">
-        <v>-0.001162355196714574</v>
+        <v>-0.02803692145061646</v>
       </c>
       <c r="D38">
-        <v>-0.002305119062856845</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.002757332270774436</v>
+      </c>
+      <c r="E38">
+        <v>-0.03776757259044908</v>
+      </c>
+      <c r="F38">
+        <v>0.0009283563378470573</v>
+      </c>
+      <c r="G38">
+        <v>0.003042222629099937</v>
+      </c>
+      <c r="H38">
+        <v>0.03841138891365069</v>
+      </c>
+      <c r="I38">
+        <v>0.01057894625862947</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.09300036460546927</v>
+        <v>-0.1007863265462404</v>
       </c>
       <c r="C39">
-        <v>-0.05640660794349658</v>
+        <v>-0.02890871821677199</v>
       </c>
       <c r="D39">
-        <v>0.04534475049058415</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.06105381991289836</v>
+      </c>
+      <c r="E39">
+        <v>-0.02125018396703623</v>
+      </c>
+      <c r="F39">
+        <v>0.02464352102049922</v>
+      </c>
+      <c r="G39">
+        <v>-0.03004684927182395</v>
+      </c>
+      <c r="H39">
+        <v>0.01826048277635262</v>
+      </c>
+      <c r="I39">
+        <v>0.06410201536321863</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.07743523401133333</v>
+        <v>-0.05507791428840285</v>
       </c>
       <c r="C40">
-        <v>-0.01782116847194169</v>
+        <v>-0.03864473410869666</v>
       </c>
       <c r="D40">
-        <v>0.02611414416825891</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.005568840938417413</v>
+      </c>
+      <c r="E40">
+        <v>-0.06399002515067598</v>
+      </c>
+      <c r="F40">
+        <v>-0.01378448388662874</v>
+      </c>
+      <c r="G40">
+        <v>-0.02770293492484174</v>
+      </c>
+      <c r="H40">
+        <v>-0.04397099559996256</v>
+      </c>
+      <c r="I40">
+        <v>0.2542220380001941</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>0.05283314922724262</v>
+        <v>-0.0469338892482745</v>
       </c>
       <c r="C41">
-        <v>-0.01071309348271509</v>
+        <v>-0.0333784346214279</v>
       </c>
       <c r="D41">
-        <v>0.031509929743787</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01472476805595229</v>
+      </c>
+      <c r="E41">
+        <v>0.005939759332955504</v>
+      </c>
+      <c r="F41">
+        <v>-0.01152441467137445</v>
+      </c>
+      <c r="G41">
+        <v>-0.02143849668785777</v>
+      </c>
+      <c r="H41">
+        <v>0.04140805964037957</v>
+      </c>
+      <c r="I41">
+        <v>0.03008901935388218</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1909,83 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.05854912776103158</v>
+        <v>-0.0611409620959595</v>
       </c>
       <c r="C43">
-        <v>-0.0297788559684862</v>
+        <v>-0.02241713531715355</v>
       </c>
       <c r="D43">
-        <v>0.01045759181083289</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.03119063855245668</v>
+      </c>
+      <c r="E43">
+        <v>-0.01535724625133055</v>
+      </c>
+      <c r="F43">
+        <v>0.02029498220667518</v>
+      </c>
+      <c r="G43">
+        <v>0.004629409936918943</v>
+      </c>
+      <c r="H43">
+        <v>0.05796756092037662</v>
+      </c>
+      <c r="I43">
+        <v>0.002199840006605829</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.0975669361450423</v>
+        <v>-0.09409583320633975</v>
       </c>
       <c r="C44">
-        <v>-0.009622948723774857</v>
+        <v>-0.04841745079897265</v>
       </c>
       <c r="D44">
-        <v>0.0542264289985014</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.01885610992100698</v>
+      </c>
+      <c r="E44">
+        <v>-0.08008929971755216</v>
+      </c>
+      <c r="F44">
+        <v>0.0993560588068422</v>
+      </c>
+      <c r="G44">
+        <v>-0.05406932574339499</v>
+      </c>
+      <c r="H44">
+        <v>0.05416855379056725</v>
+      </c>
+      <c r="I44">
+        <v>0.1243535691997596</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1996,199 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.02856606644827934</v>
+        <v>-0.04085318467862342</v>
       </c>
       <c r="C46">
-        <v>-0.02341752163249355</v>
+        <v>-0.02121348453887497</v>
       </c>
       <c r="D46">
-        <v>0.0312342775406108</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.0371687733649638</v>
+      </c>
+      <c r="E46">
+        <v>-0.03013636222937309</v>
+      </c>
+      <c r="F46">
+        <v>0.02757170430535998</v>
+      </c>
+      <c r="G46">
+        <v>0.002702798609023712</v>
+      </c>
+      <c r="H46">
+        <v>0.02254893854741708</v>
+      </c>
+      <c r="I46">
+        <v>0.01060557198706207</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.03913114528625573</v>
+        <v>-0.04663581351152179</v>
       </c>
       <c r="C47">
-        <v>-0.02427978186308966</v>
+        <v>0.0005077409875178207</v>
       </c>
       <c r="D47">
-        <v>-0.004789708270066071</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.0212135924904693</v>
+      </c>
+      <c r="E47">
+        <v>-0.0417835853665498</v>
+      </c>
+      <c r="F47">
+        <v>0.003039371908735523</v>
+      </c>
+      <c r="G47">
+        <v>0.02634719098435396</v>
+      </c>
+      <c r="H47">
+        <v>0.02266800778522468</v>
+      </c>
+      <c r="I47">
+        <v>0.03837268026479597</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.04370218211396451</v>
+        <v>-0.04217190784816757</v>
       </c>
       <c r="C48">
-        <v>-0.02238259750702463</v>
+        <v>-0.01305829148294237</v>
       </c>
       <c r="D48">
-        <v>0.02879527953826395</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.01809138657477113</v>
+      </c>
+      <c r="E48">
+        <v>-0.04793716827413048</v>
+      </c>
+      <c r="F48">
+        <v>0.01268680978562188</v>
+      </c>
+      <c r="G48">
+        <v>-0.009639432590301604</v>
+      </c>
+      <c r="H48">
+        <v>0.01073903236503067</v>
+      </c>
+      <c r="I48">
+        <v>0.04591879144903395</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B49">
-        <v>0.1643238891464088</v>
+        <v>-0.2036141587822673</v>
       </c>
       <c r="C49">
-        <v>-0.03986552058124973</v>
+        <v>-0.01105264314011506</v>
       </c>
       <c r="D49">
-        <v>0.02304060884273272</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.04796859260480262</v>
+      </c>
+      <c r="E49">
+        <v>0.2128266886675089</v>
+      </c>
+      <c r="F49">
+        <v>-0.007236651740451712</v>
+      </c>
+      <c r="G49">
+        <v>0.1328373520099395</v>
+      </c>
+      <c r="H49">
+        <v>-0.2293132255587965</v>
+      </c>
+      <c r="I49">
+        <v>-0.08046105119672538</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.05034345580337112</v>
+        <v>-0.05038933401709796</v>
       </c>
       <c r="C50">
-        <v>-0.0352341710859969</v>
+        <v>-0.02383971952199818</v>
       </c>
       <c r="D50">
-        <v>0.03473520835778915</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.03978418004226315</v>
+      </c>
+      <c r="E50">
+        <v>-0.02781580083344353</v>
+      </c>
+      <c r="F50">
+        <v>0.01083010408945361</v>
+      </c>
+      <c r="G50">
+        <v>-0.01093207437972199</v>
+      </c>
+      <c r="H50">
+        <v>0.06280500067457181</v>
+      </c>
+      <c r="I50">
+        <v>0.02580547759463459</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>0.02680235828483038</v>
+        <v>-0.03581694171288037</v>
       </c>
       <c r="C51">
-        <v>0.002667445274264617</v>
+        <v>0.004338509337262539</v>
       </c>
       <c r="D51">
-        <v>-0.01020604163373257</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.008056938785088815</v>
+      </c>
+      <c r="E51">
+        <v>0.0101658636334651</v>
+      </c>
+      <c r="F51">
+        <v>0.01206757677403174</v>
+      </c>
+      <c r="G51">
+        <v>0.02243780282654197</v>
+      </c>
+      <c r="H51">
+        <v>-0.01947636107607426</v>
+      </c>
+      <c r="I51">
+        <v>-0.01562381338675551</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2199,141 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.1574534757142207</v>
+        <v>-0.1603253710966916</v>
       </c>
       <c r="C53">
-        <v>-0.07625456663626937</v>
+        <v>0.0009058291958914704</v>
       </c>
       <c r="D53">
-        <v>-0.01282273124736859</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.05721020721773733</v>
+      </c>
+      <c r="E53">
+        <v>0.03026786473744739</v>
+      </c>
+      <c r="F53">
+        <v>-0.00507583953661711</v>
+      </c>
+      <c r="G53">
+        <v>-0.0006171366243771073</v>
+      </c>
+      <c r="H53">
+        <v>0.2094128071159802</v>
+      </c>
+      <c r="I53">
+        <v>-0.1046706701129647</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0.06317591668955991</v>
+        <v>-0.06154888106287292</v>
       </c>
       <c r="C54">
-        <v>-0.02171296715636098</v>
+        <v>-0.002988238072279895</v>
       </c>
       <c r="D54">
-        <v>0.01933160400093347</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.01816748351346736</v>
+      </c>
+      <c r="E54">
+        <v>-0.06616458760542916</v>
+      </c>
+      <c r="F54">
+        <v>0.03383086053242242</v>
+      </c>
+      <c r="G54">
+        <v>-0.04864794526577128</v>
+      </c>
+      <c r="H54">
+        <v>0.03741264278718311</v>
+      </c>
+      <c r="I54">
+        <v>0.1210200370194653</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.1019690849230044</v>
+        <v>-0.1003692381091338</v>
       </c>
       <c r="C55">
-        <v>-0.04855936580008383</v>
+        <v>-0.01474933697507311</v>
       </c>
       <c r="D55">
-        <v>0.01207015828904637</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.04102134247188194</v>
+      </c>
+      <c r="E55">
+        <v>0.004919088069328639</v>
+      </c>
+      <c r="F55">
+        <v>0.01966954874847775</v>
+      </c>
+      <c r="G55">
+        <v>-0.02896421940181173</v>
+      </c>
+      <c r="H55">
+        <v>0.1575991145138887</v>
+      </c>
+      <c r="I55">
+        <v>-0.02729774669246302</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.1459277371642828</v>
+        <v>-0.1509590754374512</v>
       </c>
       <c r="C56">
-        <v>-0.09190530156855126</v>
+        <v>-0.009889596151049191</v>
       </c>
       <c r="D56">
-        <v>-0.007290787507707944</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.07560716296666405</v>
+      </c>
+      <c r="E56">
+        <v>0.01473896393240323</v>
+      </c>
+      <c r="F56">
+        <v>0.01403151756135021</v>
+      </c>
+      <c r="G56">
+        <v>-0.02752557737041011</v>
+      </c>
+      <c r="H56">
+        <v>0.1990533238523067</v>
+      </c>
+      <c r="I56">
+        <v>-0.1165224356370462</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,542 +2344,1127 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>0.120355051380485</v>
+        <v>-0.08731623566510292</v>
       </c>
       <c r="C58">
-        <v>0.04446392575905057</v>
+        <v>-0.06282943634776557</v>
       </c>
       <c r="D58">
-        <v>0.05626825696375862</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.05991270180923957</v>
+      </c>
+      <c r="E58">
+        <v>-0.1129171610075123</v>
+      </c>
+      <c r="F58">
+        <v>0.04774181652744965</v>
+      </c>
+      <c r="G58">
+        <v>0.1160076279840077</v>
+      </c>
+      <c r="H58">
+        <v>-0.1651603677159661</v>
+      </c>
+      <c r="I58">
+        <v>0.5490045163049402</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.1274931451718709</v>
+        <v>-0.1574018328634404</v>
       </c>
       <c r="C59">
-        <v>-0.07771190938357617</v>
+        <v>0.3570380461045892</v>
       </c>
       <c r="D59">
-        <v>-0.4363988508362072</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.09211654882923381</v>
+      </c>
+      <c r="E59">
+        <v>0.001956167095854339</v>
+      </c>
+      <c r="F59">
+        <v>0.005536140549046275</v>
+      </c>
+      <c r="G59">
+        <v>-0.01275047752455692</v>
+      </c>
+      <c r="H59">
+        <v>0.02287461552363921</v>
+      </c>
+      <c r="I59">
+        <v>-0.04409337261120513</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.2115968714142422</v>
+        <v>-0.2398723162160926</v>
       </c>
       <c r="C60">
-        <v>-0.08102182270548092</v>
+        <v>-0.01509572339439583</v>
       </c>
       <c r="D60">
-        <v>0.002507449884646991</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.07298667722086065</v>
+      </c>
+      <c r="E60">
+        <v>0.147469421705522</v>
+      </c>
+      <c r="F60">
+        <v>0.0241456991514302</v>
+      </c>
+      <c r="G60">
+        <v>0.002265669691009587</v>
+      </c>
+      <c r="H60">
+        <v>-0.1527945357065515</v>
+      </c>
+      <c r="I60">
+        <v>-0.1198218312823837</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.07917101847646214</v>
+        <v>-0.08661166734016852</v>
       </c>
       <c r="C61">
-        <v>-0.04827643816915043</v>
+        <v>-0.02048545391075106</v>
       </c>
       <c r="D61">
-        <v>0.02657438520784186</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.05161587212241231</v>
+      </c>
+      <c r="E61">
+        <v>-0.01459613138916246</v>
+      </c>
+      <c r="F61">
+        <v>0.02763508317465959</v>
+      </c>
+      <c r="G61">
+        <v>-0.04261202665011345</v>
+      </c>
+      <c r="H61">
+        <v>0.06622806194458772</v>
+      </c>
+      <c r="I61">
+        <v>0.03225595485729515</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B62">
-        <v>0.1364186647327202</v>
+        <v>-0.1422462974026307</v>
       </c>
       <c r="C62">
-        <v>-0.05164569384433014</v>
+        <v>-0.02409369259764685</v>
       </c>
       <c r="D62">
-        <v>-0.004301553892076975</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.04464765967457866</v>
+      </c>
+      <c r="E62">
+        <v>0.04263109281765171</v>
+      </c>
+      <c r="F62">
+        <v>-0.03230097616533475</v>
+      </c>
+      <c r="G62">
+        <v>-0.05561849845242785</v>
+      </c>
+      <c r="H62">
+        <v>0.1933900946798082</v>
+      </c>
+      <c r="I62">
+        <v>-0.1156823908568237</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.05795405663745871</v>
+        <v>-0.05180583606894478</v>
       </c>
       <c r="C63">
-        <v>-0.01794805059121588</v>
+        <v>-0.01580910051004152</v>
       </c>
       <c r="D63">
-        <v>0.0223627765831955</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.01716867405527423</v>
+      </c>
+      <c r="E63">
+        <v>-0.02616179961400273</v>
+      </c>
+      <c r="F63">
+        <v>0.0089630043202474</v>
+      </c>
+      <c r="G63">
+        <v>-0.05058515460394694</v>
+      </c>
+      <c r="H63">
+        <v>0.03219505892909237</v>
+      </c>
+      <c r="I63">
+        <v>0.03216769854139988</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.1061570534709631</v>
+        <v>-0.1122526627206008</v>
       </c>
       <c r="C64">
-        <v>-0.03165750424720102</v>
+        <v>-0.009659821635841052</v>
       </c>
       <c r="D64">
-        <v>0.01480097339992879</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.02899658449728321</v>
+      </c>
+      <c r="E64">
+        <v>-0.03354678758808841</v>
+      </c>
+      <c r="F64">
+        <v>0.05929726289598893</v>
+      </c>
+      <c r="G64">
+        <v>-0.04475443338134171</v>
+      </c>
+      <c r="H64">
+        <v>0.007986791645440789</v>
+      </c>
+      <c r="I64">
+        <v>0.05307865346639278</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0.1281637221074267</v>
+        <v>-0.1334806116008729</v>
       </c>
       <c r="C65">
-        <v>-0.04609317013762321</v>
+        <v>0.005639958326549417</v>
       </c>
       <c r="D65">
-        <v>0.02360110117787194</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.03852720817910978</v>
+      </c>
+      <c r="E65">
+        <v>0.004023191254459784</v>
+      </c>
+      <c r="F65">
+        <v>0.02788211802348579</v>
+      </c>
+      <c r="G65">
+        <v>-0.08922570469231282</v>
+      </c>
+      <c r="H65">
+        <v>-0.2169622677071296</v>
+      </c>
+      <c r="I65">
+        <v>0.0374193555893224</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.1521995243615771</v>
+        <v>-0.1475366784638436</v>
       </c>
       <c r="C66">
-        <v>-0.0804136916667362</v>
+        <v>-0.06972724430808407</v>
       </c>
       <c r="D66">
-        <v>0.08400537125454631</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.09300196868748548</v>
+      </c>
+      <c r="E66">
+        <v>0.003452251825787259</v>
+      </c>
+      <c r="F66">
+        <v>0.01233233347491502</v>
+      </c>
+      <c r="G66">
+        <v>-0.07610715430173512</v>
+      </c>
+      <c r="H66">
+        <v>0.07627128717175166</v>
+      </c>
+      <c r="I66">
+        <v>0.1097020393266347</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.09472596820245736</v>
+        <v>-0.09667415344474431</v>
       </c>
       <c r="C67">
-        <v>-0.005939056609160558</v>
+        <v>-0.03384559631542873</v>
       </c>
       <c r="D67">
-        <v>0.004053729400419852</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.008622599160010852</v>
+      </c>
+      <c r="E67">
+        <v>0.0005521863337254591</v>
+      </c>
+      <c r="F67">
+        <v>0.008366529550998435</v>
+      </c>
+      <c r="G67">
+        <v>0.01638683680857197</v>
+      </c>
+      <c r="H67">
+        <v>0.03124224723457315</v>
+      </c>
+      <c r="I67">
+        <v>-0.02332906665209437</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.04781206322280059</v>
+        <v>-0.07172640511742411</v>
       </c>
       <c r="C68">
-        <v>-0.04352255591514684</v>
+        <v>0.276393492835162</v>
       </c>
       <c r="D68">
-        <v>-0.2562074554142899</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.06695482736453773</v>
+      </c>
+      <c r="E68">
+        <v>-0.03601408579062426</v>
+      </c>
+      <c r="F68">
+        <v>0.02193795257491079</v>
+      </c>
+      <c r="G68">
+        <v>0.004982698506869995</v>
+      </c>
+      <c r="H68">
+        <v>0.01629061652418893</v>
+      </c>
+      <c r="I68">
+        <v>0.01744117243007476</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.06353035833420598</v>
+        <v>-0.05594813170052628</v>
       </c>
       <c r="C69">
-        <v>-0.02337045352781771</v>
+        <v>-0.0152175858202935</v>
       </c>
       <c r="D69">
-        <v>0.01490141158813955</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.01466842777520183</v>
+      </c>
+      <c r="E69">
+        <v>-0.02813119158529425</v>
+      </c>
+      <c r="F69">
+        <v>-0.009922362896633672</v>
+      </c>
+      <c r="G69">
+        <v>-0.004233356928914841</v>
+      </c>
+      <c r="H69">
+        <v>0.03856867706922899</v>
+      </c>
+      <c r="I69">
+        <v>0.01159085430770006</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B70">
-        <v>0.01106189898422529</v>
+        <v>-0.03328229967659659</v>
       </c>
       <c r="C70">
-        <v>-0.001849619751037808</v>
+        <v>0.002827643041593623</v>
       </c>
       <c r="D70">
-        <v>-0.01431837009691115</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.002398090401308577</v>
+      </c>
+      <c r="E70">
+        <v>0.02626981183993092</v>
+      </c>
+      <c r="F70">
+        <v>-0.002425955093031211</v>
+      </c>
+      <c r="G70">
+        <v>0.000761068865519885</v>
+      </c>
+      <c r="H70">
+        <v>-0.03287617754492023</v>
+      </c>
+      <c r="I70">
+        <v>0.01451841203592479</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.04620317926676351</v>
+        <v>-0.07748411528419247</v>
       </c>
       <c r="C71">
-        <v>-0.03819328660496179</v>
+        <v>0.296036089369226</v>
       </c>
       <c r="D71">
-        <v>-0.2904819541246754</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.07566825847857843</v>
+      </c>
+      <c r="E71">
+        <v>-0.02441592368014739</v>
+      </c>
+      <c r="F71">
+        <v>0.04550188246532139</v>
+      </c>
+      <c r="G71">
+        <v>-0.00022678329130184</v>
+      </c>
+      <c r="H71">
+        <v>0.01932843224069606</v>
+      </c>
+      <c r="I71">
+        <v>0.01430798124228849</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.1418427130715272</v>
+        <v>-0.1373000021984179</v>
       </c>
       <c r="C72">
-        <v>-0.04232717214375158</v>
+        <v>0.005031490001389031</v>
       </c>
       <c r="D72">
-        <v>-0.02467018551902969</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.01203839423445328</v>
+      </c>
+      <c r="E72">
+        <v>0.01014682885809156</v>
+      </c>
+      <c r="F72">
+        <v>-0.1670011812801052</v>
+      </c>
+      <c r="G72">
+        <v>-0.1109406727340715</v>
+      </c>
+      <c r="H72">
+        <v>0.0128916890283127</v>
+      </c>
+      <c r="I72">
+        <v>-0.01423543876076772</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.2630425954623065</v>
+        <v>-0.2653620639684794</v>
       </c>
       <c r="C73">
-        <v>-0.06359605525019738</v>
+        <v>-0.08899754134908866</v>
       </c>
       <c r="D73">
-        <v>0.06852533355128569</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.06045959222463952</v>
+      </c>
+      <c r="E73">
+        <v>0.3317067133256177</v>
+      </c>
+      <c r="F73">
+        <v>0.007862245173809462</v>
+      </c>
+      <c r="G73">
+        <v>0.2235798041017052</v>
+      </c>
+      <c r="H73">
+        <v>-0.3055715986479416</v>
+      </c>
+      <c r="I73">
+        <v>-0.0421377293457233</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.08367052541525732</v>
+        <v>-0.0907989834355394</v>
       </c>
       <c r="C74">
-        <v>-0.07757316513938313</v>
+        <v>-0.01234119455757718</v>
       </c>
       <c r="D74">
-        <v>0.005474928563274251</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.07277045460693962</v>
+      </c>
+      <c r="E74">
+        <v>0.003950397528854311</v>
+      </c>
+      <c r="F74">
+        <v>0.0003510848184276569</v>
+      </c>
+      <c r="G74">
+        <v>0.01771833227134455</v>
+      </c>
+      <c r="H74">
+        <v>0.1288158626400571</v>
+      </c>
+      <c r="I74">
+        <v>-0.02173860457082082</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.1130044371278422</v>
+        <v>-0.1052254941175125</v>
       </c>
       <c r="C75">
-        <v>-0.04715633830885162</v>
+        <v>-0.01913559465892617</v>
       </c>
       <c r="D75">
-        <v>0.002938769223816121</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.02762298342899838</v>
+      </c>
+      <c r="E75">
+        <v>-0.003054832010276946</v>
+      </c>
+      <c r="F75">
+        <v>-0.005537154234485202</v>
+      </c>
+      <c r="G75">
+        <v>0.002749364954663892</v>
+      </c>
+      <c r="H75">
+        <v>0.1114037462916429</v>
+      </c>
+      <c r="I75">
+        <v>-0.05761611813177565</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.1311976420191274</v>
+        <v>-0.1346759778783706</v>
       </c>
       <c r="C76">
-        <v>-0.07219082327193162</v>
+        <v>-0.03103540187881671</v>
       </c>
       <c r="D76">
-        <v>0.0277195058564341</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.07498693314480377</v>
+      </c>
+      <c r="E76">
+        <v>-0.009134717417995892</v>
+      </c>
+      <c r="F76">
+        <v>0.03710875084817359</v>
+      </c>
+      <c r="G76">
+        <v>-0.03213966669799549</v>
+      </c>
+      <c r="H76">
+        <v>0.2533006297853791</v>
+      </c>
+      <c r="I76">
+        <v>-0.09746300638029591</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.1302005023500065</v>
+        <v>-0.1002389543752886</v>
       </c>
       <c r="C77">
-        <v>0.03292505856583619</v>
+        <v>-0.05539875498964028</v>
       </c>
       <c r="D77">
-        <v>0.06391949966649446</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.05329399502446279</v>
+      </c>
+      <c r="E77">
+        <v>-0.1296102008672591</v>
+      </c>
+      <c r="F77">
+        <v>0.07089765446137346</v>
+      </c>
+      <c r="G77">
+        <v>-0.7705365361037882</v>
+      </c>
+      <c r="H77">
+        <v>-0.3127306018330677</v>
+      </c>
+      <c r="I77">
+        <v>-0.2600130217775616</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.110677899213725</v>
+        <v>-0.1504797958045744</v>
       </c>
       <c r="C78">
-        <v>-0.02649695378484116</v>
+        <v>-0.05020506066595375</v>
       </c>
       <c r="D78">
-        <v>0.07814279861661103</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.05970595019373481</v>
+      </c>
+      <c r="E78">
+        <v>-0.09943200477080573</v>
+      </c>
+      <c r="F78">
+        <v>0.05942722817748525</v>
+      </c>
+      <c r="G78">
+        <v>0.007904673067700508</v>
+      </c>
+      <c r="H78">
+        <v>-0.1416427440308056</v>
+      </c>
+      <c r="I78">
+        <v>0.04645425781810427</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>0.140844865885255</v>
+        <v>-0.1433551605684644</v>
       </c>
       <c r="C79">
-        <v>-0.05173016725397</v>
+        <v>-0.03006312285069185</v>
       </c>
       <c r="D79">
-        <v>0.02844820224827546</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.04502130065078839</v>
+      </c>
+      <c r="E79">
+        <v>0.01588912890982604</v>
+      </c>
+      <c r="F79">
+        <v>0.0179882962563473</v>
+      </c>
+      <c r="G79">
+        <v>-0.03551843493548858</v>
+      </c>
+      <c r="H79">
+        <v>0.1722936113980417</v>
+      </c>
+      <c r="I79">
+        <v>-0.07934047257509615</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.03634978198197811</v>
+        <v>-0.04131902809304528</v>
       </c>
       <c r="C80">
-        <v>-0.01884014445172415</v>
+        <v>-0.004844030869763804</v>
       </c>
       <c r="D80">
-        <v>0.02380357983227246</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.02310221635999643</v>
+      </c>
+      <c r="E80">
+        <v>0.05409054660233393</v>
+      </c>
+      <c r="F80">
+        <v>0.001502632182248231</v>
+      </c>
+      <c r="G80">
+        <v>0.007815484908147085</v>
+      </c>
+      <c r="H80">
+        <v>0.02491904048787228</v>
+      </c>
+      <c r="I80">
+        <v>0.118887248621984</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.1356187423131893</v>
+        <v>-0.1317711848026799</v>
       </c>
       <c r="C81">
-        <v>-0.06745985455872704</v>
+        <v>-0.01062762834280211</v>
       </c>
       <c r="D81">
-        <v>0.009557210844404324</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.04932208532509087</v>
+      </c>
+      <c r="E81">
+        <v>0.001547481350718334</v>
+      </c>
+      <c r="F81">
+        <v>0.01947069476119762</v>
+      </c>
+      <c r="G81">
+        <v>-0.007471558972781283</v>
+      </c>
+      <c r="H81">
+        <v>0.1584478930112877</v>
+      </c>
+      <c r="I81">
+        <v>-0.0251248781902256</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>0.1284641878223803</v>
+        <v>-0.1258709373022603</v>
       </c>
       <c r="C82">
-        <v>-0.06171966481276666</v>
+        <v>-0.01583875383830161</v>
       </c>
       <c r="D82">
-        <v>0.01261992465804852</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.05232419274958405</v>
+      </c>
+      <c r="E82">
+        <v>0.01464177203618294</v>
+      </c>
+      <c r="F82">
+        <v>0.03045520568856825</v>
+      </c>
+      <c r="G82">
+        <v>-0.003607054437728189</v>
+      </c>
+      <c r="H82">
+        <v>0.248239397794407</v>
+      </c>
+      <c r="I82">
+        <v>-0.1059324127904452</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>0.06510113625980023</v>
+        <v>-0.08031691754080622</v>
       </c>
       <c r="C83">
-        <v>0.04842198186220854</v>
+        <v>-0.03329621188780067</v>
       </c>
       <c r="D83">
-        <v>-0.005900456244821523</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.04624949035666697</v>
+      </c>
+      <c r="E83">
+        <v>-0.00371805799600935</v>
+      </c>
+      <c r="F83">
+        <v>0.04299253262506199</v>
+      </c>
+      <c r="G83">
+        <v>0.06938663542178455</v>
+      </c>
+      <c r="H83">
+        <v>-0.00959388343227374</v>
+      </c>
+      <c r="I83">
+        <v>0.1000210232759177</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>0.03667386470074768</v>
+        <v>-0.03528461359711806</v>
       </c>
       <c r="C84">
-        <v>-0.03222834196731795</v>
+        <v>-0.03099400523973063</v>
       </c>
       <c r="D84">
-        <v>0.03323272970298842</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.03514390884096247</v>
+      </c>
+      <c r="E84">
+        <v>-0.03329493570235389</v>
+      </c>
+      <c r="F84">
+        <v>-0.0372937240675306</v>
+      </c>
+      <c r="G84">
+        <v>0.03824701439821415</v>
+      </c>
+      <c r="H84">
+        <v>0.03657375196432022</v>
+      </c>
+      <c r="I84">
+        <v>0.09459162452327012</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.1150376551864058</v>
+        <v>-0.120051506447992</v>
       </c>
       <c r="C85">
-        <v>-0.02848108098429956</v>
+        <v>-0.02974985412921562</v>
       </c>
       <c r="D85">
-        <v>0.03863929356831486</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.02973821111688867</v>
+      </c>
+      <c r="E85">
+        <v>0.006748612325071917</v>
+      </c>
+      <c r="F85">
+        <v>0.04451557610217727</v>
+      </c>
+      <c r="G85">
+        <v>-0.006687290268406259</v>
+      </c>
+      <c r="H85">
+        <v>0.1596618818058796</v>
+      </c>
+      <c r="I85">
+        <v>-0.06623300510753034</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.06136543134318764</v>
+        <v>-0.05941518837934891</v>
       </c>
       <c r="C86">
-        <v>-0.02289865509421627</v>
+        <v>-0.02740069819558571</v>
       </c>
       <c r="D86">
-        <v>0.06612946013824843</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.02309968558944285</v>
+      </c>
+      <c r="E86">
+        <v>-0.02138176612280114</v>
+      </c>
+      <c r="F86">
+        <v>0.02079829684276791</v>
+      </c>
+      <c r="G86">
+        <v>0.01930738356165869</v>
+      </c>
+      <c r="H86">
+        <v>-0.05816831835666168</v>
+      </c>
+      <c r="I86">
+        <v>-0.04168961171088947</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.1244195817004989</v>
+        <v>-0.1276813992780721</v>
       </c>
       <c r="C87">
-        <v>-0.06066331819953146</v>
+        <v>-0.05702130152218456</v>
       </c>
       <c r="D87">
-        <v>0.09292159290514447</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.06309179296901349</v>
+      </c>
+      <c r="E87">
+        <v>-0.05622933667466192</v>
+      </c>
+      <c r="F87">
+        <v>0.03585497480505195</v>
+      </c>
+      <c r="G87">
+        <v>-0.1493110196009402</v>
+      </c>
+      <c r="H87">
+        <v>-0.1001108342740491</v>
+      </c>
+      <c r="I87">
+        <v>-0.002247442260870476</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.06009465807153146</v>
+        <v>-0.06423179364592786</v>
       </c>
       <c r="C88">
-        <v>-0.03084543380393354</v>
+        <v>-0.02948528337679559</v>
       </c>
       <c r="D88">
-        <v>0.02538819408915598</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.03897835079308213</v>
+      </c>
+      <c r="E88">
+        <v>0.004275236371059598</v>
+      </c>
+      <c r="F88">
+        <v>0.02172411575084158</v>
+      </c>
+      <c r="G88">
+        <v>-0.01436518353262465</v>
+      </c>
+      <c r="H88">
+        <v>0.03994042208926227</v>
+      </c>
+      <c r="I88">
+        <v>0.03117501210731911</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.07305531338749947</v>
+        <v>-0.1218985810109848</v>
       </c>
       <c r="C89">
-        <v>-0.07407047901858464</v>
+        <v>0.3742695980246735</v>
       </c>
       <c r="D89">
-        <v>-0.3186326489996167</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.06728604800449953</v>
+      </c>
+      <c r="E89">
+        <v>-0.03204441473274953</v>
+      </c>
+      <c r="F89">
+        <v>0.09013245479934685</v>
+      </c>
+      <c r="G89">
+        <v>0.01816912006015967</v>
+      </c>
+      <c r="H89">
+        <v>0.009383182532491237</v>
+      </c>
+      <c r="I89">
+        <v>0.08450809619842073</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.06397438930593249</v>
+        <v>-0.08819009936933556</v>
       </c>
       <c r="C90">
-        <v>-0.04015231255333379</v>
+        <v>0.2764449796091338</v>
       </c>
       <c r="D90">
-        <v>-0.28218451665318</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.07459574677617098</v>
+      </c>
+      <c r="E90">
+        <v>-0.01764031108341062</v>
+      </c>
+      <c r="F90">
+        <v>0.03429924839205094</v>
+      </c>
+      <c r="G90">
+        <v>-0.003452955037694805</v>
+      </c>
+      <c r="H90">
+        <v>-0.008782611114805485</v>
+      </c>
+      <c r="I90">
+        <v>0.09623728334954705</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.09719777834822473</v>
+        <v>-0.0917786727674503</v>
       </c>
       <c r="C91">
-        <v>-0.04975314887097464</v>
+        <v>-0.02046736676319525</v>
       </c>
       <c r="D91">
-        <v>0.009772763650873173</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.03628849870445772</v>
+      </c>
+      <c r="E91">
+        <v>-0.0004316698954448631</v>
+      </c>
+      <c r="F91">
+        <v>0.003688822675998725</v>
+      </c>
+      <c r="G91">
+        <v>0.01472887130598302</v>
+      </c>
+      <c r="H91">
+        <v>0.08568169876818042</v>
+      </c>
+      <c r="I91">
+        <v>-0.04208925664748529</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.06020072858933493</v>
+        <v>-0.09199750823055979</v>
       </c>
       <c r="C92">
-        <v>-0.06326386913772448</v>
+        <v>0.3319280322236235</v>
       </c>
       <c r="D92">
-        <v>-0.3271623997424038</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.07225974946615817</v>
+      </c>
+      <c r="E92">
+        <v>-0.02846062841374842</v>
+      </c>
+      <c r="F92">
+        <v>0.04690903385854203</v>
+      </c>
+      <c r="G92">
+        <v>-0.0008276627386054494</v>
+      </c>
+      <c r="H92">
+        <v>0.01805392114494987</v>
+      </c>
+      <c r="I92">
+        <v>0.02359880384807158</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.05535817765362791</v>
+        <v>-0.08975767113175737</v>
       </c>
       <c r="C93">
-        <v>-0.05517829542238289</v>
+        <v>0.3137604917736432</v>
       </c>
       <c r="D93">
-        <v>-0.308337786952971</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.06574544916910376</v>
+      </c>
+      <c r="E93">
+        <v>-0.0006098302527675434</v>
+      </c>
+      <c r="F93">
+        <v>0.02758292751023028</v>
+      </c>
+      <c r="G93">
+        <v>-0.009411737511035776</v>
+      </c>
+      <c r="H93">
+        <v>-0.003768599439445451</v>
+      </c>
+      <c r="I93">
+        <v>0.00870591463100848</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.1285205167813822</v>
+        <v>-0.1249129614513994</v>
       </c>
       <c r="C94">
-        <v>-0.03054904239561541</v>
+        <v>-0.04141029788530153</v>
       </c>
       <c r="D94">
-        <v>0.05226397852035049</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.02563317951565717</v>
+      </c>
+      <c r="E94">
+        <v>0.001397626731325806</v>
+      </c>
+      <c r="F94">
+        <v>0.01331359039981482</v>
+      </c>
+      <c r="G94">
+        <v>0.05494773041880192</v>
+      </c>
+      <c r="H94">
+        <v>0.1131782965108856</v>
+      </c>
+      <c r="I94">
+        <v>-0.05203308461481636</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.1242173923254146</v>
+        <v>-0.1339481775016146</v>
       </c>
       <c r="C95">
-        <v>-0.01430796296933628</v>
+        <v>-0.06059121248896713</v>
       </c>
       <c r="D95">
-        <v>0.07833435061224731</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.02231746116552573</v>
+      </c>
+      <c r="E95">
+        <v>-0.02078591004081915</v>
+      </c>
+      <c r="F95">
+        <v>0.04556526573646739</v>
+      </c>
+      <c r="G95">
+        <v>-0.04871702176244177</v>
+      </c>
+      <c r="H95">
+        <v>-0.1333188411965685</v>
+      </c>
+      <c r="I95">
+        <v>0.04921947776442175</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,52 +3475,112 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0.2353517154405474</v>
+        <v>-0.1899371861564691</v>
       </c>
       <c r="C97">
-        <v>-0.06419113086724394</v>
+        <v>0.0378643993818044</v>
       </c>
       <c r="D97">
-        <v>-0.1171077178432198</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.04224279928991467</v>
+      </c>
+      <c r="E97">
+        <v>-0.1269973591996117</v>
+      </c>
+      <c r="F97">
+        <v>-0.927718692635594</v>
+      </c>
+      <c r="G97">
+        <v>-0.05962752920323772</v>
+      </c>
+      <c r="H97">
+        <v>-0.00871214714231236</v>
+      </c>
+      <c r="I97">
+        <v>0.09094860294700281</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>0.2560995796036456</v>
+        <v>-0.2794390170665275</v>
       </c>
       <c r="C98">
-        <v>-0.07380217176893328</v>
+        <v>-0.04893162801484857</v>
       </c>
       <c r="D98">
-        <v>0.03003152002684925</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.06237942410059654</v>
+      </c>
+      <c r="E98">
+        <v>0.262974330801126</v>
+      </c>
+      <c r="F98">
+        <v>-0.03656215865699881</v>
+      </c>
+      <c r="G98">
+        <v>0.2646198444689633</v>
+      </c>
+      <c r="H98">
+        <v>-0.1844413572076602</v>
+      </c>
+      <c r="I98">
+        <v>-0.1965176734460644</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B99">
-        <v>0.3540502237117999</v>
+        <v>-0.2283452457606178</v>
       </c>
       <c r="C99">
-        <v>0.9105040796762069</v>
+        <v>-0.2854619211848847</v>
       </c>
       <c r="D99">
-        <v>-0.0819085477936877</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.9028241763086379</v>
+      </c>
+      <c r="E99">
+        <v>0.03402450831723349</v>
+      </c>
+      <c r="F99">
+        <v>0.07472135449041435</v>
+      </c>
+      <c r="G99">
+        <v>0.02095411391341981</v>
+      </c>
+      <c r="H99">
+        <v>0.1089383818277951</v>
+      </c>
+      <c r="I99">
+        <v>-0.007235929028055125</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,24 +3591,54 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>0.05186464484429883</v>
+        <v>-0.05412848549538313</v>
       </c>
       <c r="C101">
-        <v>-0.04586148797119849</v>
+        <v>0.004855648541098381</v>
       </c>
       <c r="D101">
-        <v>-0.002863841705963084</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.03855705636236191</v>
+      </c>
+      <c r="E101">
+        <v>-0.03643389678643287</v>
+      </c>
+      <c r="F101">
+        <v>0.03630793172087077</v>
+      </c>
+      <c r="G101">
+        <v>-0.01436499283670479</v>
+      </c>
+      <c r="H101">
+        <v>0.08286781038980058</v>
+      </c>
+      <c r="I101">
+        <v>0.04163412986674053</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3649,25 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3678,25 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3705,21 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
